--- a/Visualization/Dashboard.xlsx
+++ b/Visualization/Dashboard.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\hk2_nam3\DACNTT\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\github\Data-Warehouse-Project\Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C0922-D77F-4A87-9357-7D19A9EDA5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA083D81-720D-4931-B3DB-D800DDFE8F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{09D6D70C-8B76-4419-BA66-E930D6F17B35}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="1" xr2:uid="{09D6D70C-8B76-4419-BA66-E930D6F17B35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales" sheetId="4" r:id="rId1"/>
+    <sheet name="Sales" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Shipping" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -33,7 +33,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
         <pivotCache cacheId="0" r:id="rId3"/>
-        <pivotCache cacheId="98" r:id="rId4"/>
+        <pivotCache cacheId="1" r:id="rId4"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -55,17 +55,17 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="1" r:id="rId15"/>
-        <pivotCache cacheId="2" r:id="rId16"/>
-        <pivotCache cacheId="3" r:id="rId17"/>
-        <pivotCache cacheId="4" r:id="rId18"/>
-        <pivotCache cacheId="5" r:id="rId19"/>
-        <pivotCache cacheId="568" r:id="rId20"/>
-        <pivotCache cacheId="570" r:id="rId21"/>
-        <pivotCache cacheId="572" r:id="rId22"/>
-        <pivotCache cacheId="562" r:id="rId23"/>
-        <pivotCache cacheId="564" r:id="rId24"/>
-        <pivotCache cacheId="566" r:id="rId25"/>
+        <pivotCache cacheId="2" r:id="rId15"/>
+        <pivotCache cacheId="3" r:id="rId16"/>
+        <pivotCache cacheId="4" r:id="rId17"/>
+        <pivotCache cacheId="5" r:id="rId18"/>
+        <pivotCache cacheId="6" r:id="rId19"/>
+        <pivotCache cacheId="7" r:id="rId20"/>
+        <pivotCache cacheId="8" r:id="rId21"/>
+        <pivotCache cacheId="9" r:id="rId22"/>
+        <pivotCache cacheId="10" r:id="rId23"/>
+        <pivotCache cacheId="11" r:id="rId24"/>
+        <pivotCache cacheId="12" r:id="rId25"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -685,7 +685,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable4</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable4</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -1714,7 +1714,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable10</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable10</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -2043,6 +2043,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3592,7 +3648,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable12</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable12</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -3973,7 +4029,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable5</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable5</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -5061,7 +5117,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable6</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable6</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -5742,7 +5798,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable7</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable7</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -6874,7 +6930,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable8</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable8</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -8090,7 +8146,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable1</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable1</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -8465,6 +8521,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -8901,7 +9013,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable2</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable2</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -9276,6 +9388,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -9892,7 +10060,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable3</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable3</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -10277,6 +10445,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -11682,7 +11906,7 @@
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Sales_Dashboard.xlsx]PivotChartTable9</c15:name>
+        <c15:name>[Dashboard.xlsx]PivotChartTable9</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -18378,8 +18602,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Quarter">
@@ -18402,7 +18626,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18456,8 +18680,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Year">
@@ -18480,7 +18704,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18714,8 +18938,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64493</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Category Name 1">
@@ -18738,7 +18962,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18792,8 +19016,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64493</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Department Name 1">
@@ -18816,7 +19040,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18870,8 +19094,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64493</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="State 1">
@@ -18894,7 +19118,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -20643,7 +20867,592 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26346DC2-EDAF-4D87-BCF7-EA049B369873}" name="PivotChartTable12" cacheId="566" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF1692A8-C8BF-45CF-92E6-59D7FBADC808}" name="PivotChartTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
+  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="4" baseField="0" baseItem="0"/>
+    <dataField fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="32">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim Date].[Year].&amp;[2015]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="5" columnCount="2" cacheId="238483897">
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>11089543.552919388</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1320980.1260460315</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>11055996.763785362</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1312365.2708364935</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>10610910.01239109</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1306072.5207726841</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>297952.05099964142</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>33924.630590477449</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>33054402.380095482</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3973342.5482456749</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BE42DE0-D069-4B52-B8DE-674030A7BA9C}" name="PivotChartTable10" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="38">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="6"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="24"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="4" columnCount="5" cacheId="886629103">
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>21388</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>51248</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4084</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>16784</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>93504</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>12856</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>29982</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2261</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9690</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>54789</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>7348</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17747</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1409</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5722</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32226</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>41592</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>98977</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7754</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32196</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>180519</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26346DC2-EDAF-4D87-BCF7-EA049B369873}" name="PivotChartTable12" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:F53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -21867,8 +22676,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E2D6B88-4417-47C5-B744-808608AFF7DB}" name="PivotChartTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E2D6B88-4417-47C5-B744-808608AFF7DB}" name="PivotChartTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -22033,20 +22842,64 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF1692A8-C8BF-45CF-92E6-59D7FBADC808}" name="PivotChartTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
-  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF2FDF51-9113-4347-A714-65B82D4912FF}" name="PivotChartTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A1:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="4">
+      <items count="50">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
         <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item c="1" x="8"/>
+        <item c="1" x="9"/>
+        <item c="1" x="10"/>
+        <item c="1" x="11"/>
+        <item c="1" x="12"/>
+        <item c="1" x="13"/>
+        <item c="1" x="14"/>
+        <item c="1" x="15"/>
+        <item c="1" x="16"/>
+        <item c="1" x="17"/>
+        <item c="1" x="18"/>
+        <item c="1" x="19"/>
+        <item c="1" x="20"/>
+        <item c="1" x="21"/>
+        <item c="1" x="22"/>
+        <item c="1" x="23"/>
+        <item c="1" x="24"/>
+        <item c="1" x="25"/>
+        <item c="1" x="26"/>
+        <item c="1" x="27"/>
+        <item c="1" x="28"/>
+        <item c="1" x="29"/>
+        <item c="1" x="30"/>
+        <item c="1" x="31"/>
+        <item c="1" x="32"/>
+        <item c="1" x="33"/>
+        <item c="1" x="34"/>
+        <item c="1" x="35"/>
+        <item c="1" x="36"/>
+        <item c="1" x="37"/>
+        <item c="1" x="38"/>
+        <item c="1" x="39"/>
+        <item c="1" x="40"/>
+        <item c="1" x="41"/>
+        <item c="1" x="42"/>
+        <item c="1" x="43"/>
+        <item c="1" x="44"/>
+        <item c="1" x="45"/>
+        <item c="1" x="46"/>
+        <item c="1" x="47"/>
+        <item c="1" x="48"/>
+        <item c="1" x="49"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -22061,7 +22914,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="51">
     <i>
       <x/>
     </i>
@@ -22073,6 +22926,144 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
     </i>
     <i t="grand">
       <x/>
@@ -22090,8 +23081,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField fld="4" baseField="0" baseItem="0"/>
-    <dataField fld="5" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
@@ -22152,7 +23143,7 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
+    <rowHierarchyUsage hierarchyUsage="21"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -22162,37 +23153,405 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="5" columnCount="2" cacheId="238483897">
+      <x15:pivotTableData rowCount="51" columnCount="2" cacheId="2099198259">
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>11089543.552919388</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1320980.1260460315</x15:v>
+            <x15:v>119712.54949378967</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>16665.529564361888</x15:v>
           </x15:c>
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>11055996.763785362</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1312365.2708364935</x15:v>
+            <x15:v>18519.609931945801</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>716.23046345855073</x15:v>
           </x15:c>
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>10610910.01239109</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1306072.5207726841</x15:v>
+            <x15:v>10957.400142669678</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1529.5293226694473</x15:v>
           </x15:c>
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>297952.05099964142</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>33924.630590477449</x15:v>
+            <x15:v>84367.270853042603</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12774.050904887135</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>24705.329620361328</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1848.247655978422</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>11303.420032501221</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>887.05861058705841</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>76286.719940185547</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8654.5540655411842</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>240496.67901611328</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>30342.453677564565</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>3700783.6284332275</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>428290.73632997158</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>3320250.6986694336</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>383622.13963733253</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2750.0299978256226</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>384.69139719604158</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>209268.38055419922</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>27199.64825445617</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>3982856.5025672913</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>495361.4810987633</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>595395</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>69759.525202922523</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>97937.559814453125</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>13257.07352919448</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>200704.87033081055</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>25574.317871024319</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>71319.379692077637</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6672.480516737076</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>333327.26079750061</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>40955.830680003695</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>6226935.2903747559</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>757333.38788993098</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>31751.360048294067</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5264.5626511577684</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>231765.46029663086</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>33472.89540819345</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>136206.8302192688</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17322.340558840959</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>31447.439710617065</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3507.1394438935922</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>9403.7900009155273</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1809.4226911128271</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>69341.249543190002</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8355.2509170164358</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>104787.40032482147</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>13001.165323128751</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>96506.469989776611</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12432.159422733388</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>95358.110290527344</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9508.4667950335897</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>43618.360048294067</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5408.7334560368699</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>50878.910079956055</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5987.6327754072818</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2596454.0161437988</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>318981.00511430867</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>89473.699462890625</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9071.6706587330827</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>35415.929792404175</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4374.7606357777759</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>39365.709991455078</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2013.6440206535935</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2598494.4207992554</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>312442.9003100837</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>42382.78980255127</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5523.0257284744475</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>101687.28987121582</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14455.531200560519</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>37318.29984664917</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3595.1625891702611</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>1177185.6272563934</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>130034.19963808366</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>23909.949733734131</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3904.8744332357055</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>105063.61151123047</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12538.993742177101</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>48813.839538574219</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>354.50426504391845</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>40077.810348510742</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5755.4389048855455</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>5485.679967880249</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>900.94509492546058</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>61667.540462493896</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7920.8509980974595</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>29919.199869155884</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2722.7080931856931</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2798044.184753418</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>325706.19036868139</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2828708.5</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>350962.67265058681</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>126006.93032836914</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>19141.969048600949</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>39984.389801025391</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5042.7646352578795</x15:v>
           </x15:c>
         </x15:pivotRow>
         <x15:pivotRow count="2">
@@ -22212,32 +23571,39 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BE42DE0-D069-4B52-B8DE-674030A7BA9C}" name="PivotChartTable10" cacheId="564" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD294FBA-DB9A-423A-9C35-5163DD750309}" name="PivotChartTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A1:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
       </items>
     </pivotField>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -22247,14 +23613,903 @@
     <i>
       <x v="2"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="32">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim Date].[Year].&amp;[2015]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="16"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="12" columnCount="2" cacheId="763736371">
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>10750552.025542259</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1270212.4653227304</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>11303.420032501221</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>887.05861058705841</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>205675.89943027496</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>24235.411207679324</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>11664409.114456177</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1431559.9571509366</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>728440.39713478088</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>85409.726041602175</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2838783.4417009354</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>331315.46076335391</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>3766524.0961370468</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>444936.49717215158</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>95358.110290527344</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9508.4667950335897</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2022208.3366937637</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>258323.29018274881</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>37318.29984664917</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3595.1625891702611</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>933829.23883056641</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>113359.05240968159</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>33054402.380095482</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3973342.5482456749</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCF6283D-8230-4677-B35F-964170691561}" name="PivotChartTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" fieldListSortAscending="1">
+  <location ref="A1:C46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="45">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="32">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim Date].[Year].&amp;[2015]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="45" columnCount="2" cacheId="1338451136">
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>7789.1000576019287</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2074.511414280651</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>29286.360314369202</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2547.6597723184755</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>549385.51602363586</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>67779.044942425811</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>5327533.1847190857</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>642023.85522967298</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>347091.77344989777</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>44569.9488398412</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>205261.821849823</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>26233.879431464822</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>106592.00085163116</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8815.2336680392254</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>51118.960599899292</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3739.2385695273729</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>995747.41023826599</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>136411.78010100196</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>450190.79467868805</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>53174.501161914966</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>230499.24259185791</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32182.352909651941</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>12880.790143966675</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1271.0709933029634</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>29352.730350494385</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4575.1137210322104</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>1403156.0751714706</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>180250.11501557217</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>105792.25110912323</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6786.798337700423</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>85946.230889320374</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>13385.818903473773</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>90473.000886917114</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3640.8260171094689</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>174077.76180839539</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17188.205384692232</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>296917.37311649323</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>41896.99254802955</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>442155.65487957001</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>50698.01479105981</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>702344.66785335541</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>81448.528673016554</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>131958.43155193329</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>15511.458958992631</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>248567.18267822266</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>31253.41635101891</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>16750.820122718811</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3460.1433155845116</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>360812.1135225296</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>47382.688895681407</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>38879.400246620178</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6154.0595141769172</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>588213.63603401184</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>67584.62752033546</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>176229.7819070816</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>26712.348457402175</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>267735.67264270782</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>34208.919886931195</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2069265.4308643341</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>239851.42143241013</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>750098.76782798767</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>84794.974927522882</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>43671.010333061218</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6044.0165992844486</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>302790.85315322876</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>36705.854513260245</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>691568.66685581207</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>78388.332928976233</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>12711252.319536209</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1515965.8541255919</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>44874.970485687256</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4624.7690280133338</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>124021.42136192322</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>21086.783217895099</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>280783.49294662476</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>30905.064566099732</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>1679804.6470489502</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>199743.08615665388</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>175788.03202819824</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>23340.051263713292</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>341814.7435503006</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>37400.671449787747</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>163878.31165218353</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17323.903161071583</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>160329.59176921844</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>18960.23635766111</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>41720.380392074585</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5246.3751924790195</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>33054402.380095482</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3973342.5482456749</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AE02187-7706-4DCB-A272-DD406E385403}" name="PivotChartTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
     <field x="0"/>
-  </colFields>
-  <colItems count="5">
+  </rowFields>
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -22270,216 +24525,15 @@
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="16">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -22500,9 +24554,13 @@
     <pivotHierarchy multipleItemSelectionAllowed="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim Date 1].[DateHierarchy].[Year].&amp;[2016]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1"/>
     <pivotHierarchy/>
@@ -22530,81 +24588,35 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="6"/>
+    <rowHierarchyUsage hierarchyUsage="24"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="24"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="4" columnCount="5" cacheId="886629103">
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>21388</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>51248</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4084</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>16784</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>93504</x15:v>
+      <x15:pivotTableData rowCount="5" columnCount="1" cacheId="1011033565">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>41592</x15:v>
           </x15:c>
         </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>12856</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>29982</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2261</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9690</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>54789</x15:v>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>98977</x15:v>
           </x15:c>
         </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>7348</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17747</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1409</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5722</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>32226</x15:v>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7754</x15:v>
           </x15:c>
         </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>41592</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>98977</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7754</x15:v>
-          </x15:c>
+        <x15:pivotRow count="1">
           <x15:c>
             <x15:v>32196</x15:v>
           </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
           <x15:c>
             <x15:v>180519</x15:v>
           </x15:c>
@@ -22618,8 +24630,697 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A6C8DD7-F8B1-4947-A02A-1E24AB1066EA}" name="PivotChartTable9" cacheId="562" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{809F5148-FA83-47D5-912A-38193030224B}" name="PivotChartTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="38">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="27"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="24"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="5" columnCount="5" cacheId="1671922472">
+        <x15:pivotRow count="5">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c>
+            <x15:v>26513</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1301</x15:v>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c>
+            <x15:v>27814</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c>
+            <x15:v>4454</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>444</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4839</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9737</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c>
+            <x15:v>26987</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1410</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6819</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>35216</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>41592</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>41023</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4599</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>20538</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>107752</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>41592</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>98977</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7754</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32196</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>180519</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD37A305-7BD0-4EAD-907D-53B7E1A8AA0D}" name="PivotChartTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="38">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="16"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="24"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="12" columnCount="5" cacheId="1183128005">
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>14016</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>35138</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2175</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11367</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>62696</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>87</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>229</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>75</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>405</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>469</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1103</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>83</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>371</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2026</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>13342</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32218</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3004</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>10536</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>59100</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>1033</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2464</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>166</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>720</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>4383</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>3434</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8055</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>609</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2710</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14808</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>5799</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11979</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1067</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3987</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>22832</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>83</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>202</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>16</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>61</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>362</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>2894</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6493</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>531</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2032</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11950</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>91</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>290</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>91</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>492</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>344</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>806</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>69</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>246</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1465</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="5">
+          <x15:c>
+            <x15:v>41592</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>98977</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7754</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32196</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>180519</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A6C8DD7-F8B1-4947-A02A-1E24AB1066EA}" name="PivotChartTable9" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:F47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -23717,2459 +26418,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD37A305-7BD0-4EAD-907D-53B7E1A8AA0D}" name="PivotChartTable3" cacheId="572" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="38">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="16"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="24"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="12" columnCount="5" cacheId="1183128005">
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>14016</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>35138</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2175</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11367</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>62696</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>87</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>229</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>75</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>405</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>469</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1103</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>83</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>371</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2026</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>13342</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>32218</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3004</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>10536</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>59100</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>1033</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2464</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>166</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>720</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4383</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>3434</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8055</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>609</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2710</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>14808</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>5799</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11979</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1067</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3987</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>22832</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>83</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>202</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>16</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>61</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>362</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>2894</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6493</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>531</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2032</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11950</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>91</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>290</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>91</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>492</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>344</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>806</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>69</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>246</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1465</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>41592</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>98977</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7754</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>32196</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>180519</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{809F5148-FA83-47D5-912A-38193030224B}" name="PivotChartTable2" cacheId="570" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="38">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="27"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="24"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="5" columnCount="5" cacheId="1671922472">
-        <x15:pivotRow count="5">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c>
-            <x15:v>26513</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1301</x15:v>
-          </x15:c>
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c>
-            <x15:v>27814</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c>
-            <x15:v>4454</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>444</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4839</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9737</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c>
-            <x15:v>26987</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1410</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6819</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>35216</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>41592</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>41023</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4599</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>20538</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>107752</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="5">
-          <x15:c>
-            <x15:v>41592</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>98977</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7754</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>32196</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>180519</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AE02187-7706-4DCB-A272-DD406E385403}" name="PivotChartTable1" cacheId="568" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="38">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="1" level="1">
-        <member name="[Dim Date 1].[DateHierarchy].[Year].&amp;[2016]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="24"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="5" columnCount="1" cacheId="1011033565">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>41592</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>98977</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7754</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32196</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>180519</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCF6283D-8230-4677-B35F-964170691561}" name="PivotChartTable8" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" fieldListSortAscending="1">
-  <location ref="A1:C46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="44">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="45">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-    <dataField fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="32">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="1" level="1">
-        <member name="[Dim Date].[Year].&amp;[2015]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="7"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="45" columnCount="2" cacheId="1338451136">
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>7789.1000576019287</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2074.511414280651</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>29286.360314369202</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2547.6597723184755</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>549385.51602363586</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>67779.044942425811</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>5327533.1847190857</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>642023.85522967298</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>347091.77344989777</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>44569.9488398412</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>205261.821849823</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>26233.879431464822</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>106592.00085163116</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8815.2336680392254</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>51118.960599899292</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3739.2385695273729</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>995747.41023826599</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>136411.78010100196</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>450190.79467868805</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>53174.501161914966</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>230499.24259185791</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>32182.352909651941</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>12880.790143966675</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1271.0709933029634</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>29352.730350494385</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4575.1137210322104</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>1403156.0751714706</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>180250.11501557217</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>105792.25110912323</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6786.798337700423</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>85946.230889320374</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>13385.818903473773</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>90473.000886917114</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3640.8260171094689</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>174077.76180839539</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17188.205384692232</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>296917.37311649323</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>41896.99254802955</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>442155.65487957001</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>50698.01479105981</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>702344.66785335541</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>81448.528673016554</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>131958.43155193329</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>15511.458958992631</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>248567.18267822266</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>31253.41635101891</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>16750.820122718811</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3460.1433155845116</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>360812.1135225296</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>47382.688895681407</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>38879.400246620178</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6154.0595141769172</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>588213.63603401184</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>67584.62752033546</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>176229.7819070816</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>26712.348457402175</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>267735.67264270782</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>34208.919886931195</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2069265.4308643341</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>239851.42143241013</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>750098.76782798767</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>84794.974927522882</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>43671.010333061218</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6044.0165992844486</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>302790.85315322876</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>36705.854513260245</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>691568.66685581207</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>78388.332928976233</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>12711252.319536209</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1515965.8541255919</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>44874.970485687256</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4624.7690280133338</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>124021.42136192322</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>21086.783217895099</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>280783.49294662476</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>30905.064566099732</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>1679804.6470489502</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>199743.08615665388</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>175788.03202819824</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>23340.051263713292</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>341814.7435503006</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>37400.671449787747</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>163878.31165218353</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17323.903161071583</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>160329.59176921844</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>18960.23635766111</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>41720.380392074585</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5246.3751924790195</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>33054402.380095482</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3973342.5482456749</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD294FBA-DB9A-423A-9C35-5163DD750309}" name="PivotChartTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="A1:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="32">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="1" level="1">
-        <member name="[Dim Date].[Year].&amp;[2015]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="16"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="12" columnCount="2" cacheId="763736371">
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>10750552.025542259</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1270212.4653227304</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>11303.420032501221</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>887.05861058705841</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>205675.89943027496</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>24235.411207679324</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>11664409.114456177</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1431559.9571509366</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>728440.39713478088</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>85409.726041602175</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2838783.4417009354</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>331315.46076335391</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>3766524.0961370468</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>444936.49717215158</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>95358.110290527344</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9508.4667950335897</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2022208.3366937637</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>258323.29018274881</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>37318.29984664917</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3595.1625891702611</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>933829.23883056641</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>113359.05240968159</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>33054402.380095482</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3973342.5482456749</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF2FDF51-9113-4347-A714-65B82D4912FF}" name="PivotChartTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
-  <location ref="A1:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="50">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
-        <item c="1" x="4"/>
-        <item c="1" x="5"/>
-        <item c="1" x="6"/>
-        <item c="1" x="7"/>
-        <item c="1" x="8"/>
-        <item c="1" x="9"/>
-        <item c="1" x="10"/>
-        <item c="1" x="11"/>
-        <item c="1" x="12"/>
-        <item c="1" x="13"/>
-        <item c="1" x="14"/>
-        <item c="1" x="15"/>
-        <item c="1" x="16"/>
-        <item c="1" x="17"/>
-        <item c="1" x="18"/>
-        <item c="1" x="19"/>
-        <item c="1" x="20"/>
-        <item c="1" x="21"/>
-        <item c="1" x="22"/>
-        <item c="1" x="23"/>
-        <item c="1" x="24"/>
-        <item c="1" x="25"/>
-        <item c="1" x="26"/>
-        <item c="1" x="27"/>
-        <item c="1" x="28"/>
-        <item c="1" x="29"/>
-        <item c="1" x="30"/>
-        <item c="1" x="31"/>
-        <item c="1" x="32"/>
-        <item c="1" x="33"/>
-        <item c="1" x="34"/>
-        <item c="1" x="35"/>
-        <item c="1" x="36"/>
-        <item c="1" x="37"/>
-        <item c="1" x="38"/>
-        <item c="1" x="39"/>
-        <item c="1" x="40"/>
-        <item c="1" x="41"/>
-        <item c="1" x="42"/>
-        <item c="1" x="43"/>
-        <item c="1" x="44"/>
-        <item c="1" x="45"/>
-        <item c="1" x="46"/>
-        <item c="1" x="47"/>
-        <item c="1" x="48"/>
-        <item c="1" x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="2" baseField="0" baseItem="0"/>
-    <dataField fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="32">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="1" level="1">
-        <member name="[Dim Date].[Year].&amp;[2015]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="21"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="51" columnCount="2" cacheId="2099198259">
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>119712.54949378967</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>16665.529564361888</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>18519.609931945801</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>716.23046345855073</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>10957.400142669678</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1529.5293226694473</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>84367.270853042603</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>12774.050904887135</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>24705.329620361328</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1848.247655978422</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>11303.420032501221</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>887.05861058705841</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>76286.719940185547</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8654.5540655411842</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>240496.67901611328</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>30342.453677564565</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>3700783.6284332275</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>428290.73632997158</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>3320250.6986694336</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>383622.13963733253</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2750.0299978256226</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>384.69139719604158</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>209268.38055419922</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>27199.64825445617</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>3982856.5025672913</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>495361.4810987633</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>595395</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>69759.525202922523</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97937.559814453125</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>13257.07352919448</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>200704.87033081055</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>25574.317871024319</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>71319.379692077637</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6672.480516737076</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>333327.26079750061</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>40955.830680003695</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>6226935.2903747559</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>757333.38788993098</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>31751.360048294067</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5264.5626511577684</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>231765.46029663086</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>33472.89540819345</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>136206.8302192688</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17322.340558840959</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>31447.439710617065</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3507.1394438935922</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>9403.7900009155273</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1809.4226911128271</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>69341.249543190002</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8355.2509170164358</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>104787.40032482147</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>13001.165323128751</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96506.469989776611</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>12432.159422733388</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>95358.110290527344</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9508.4667950335897</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>43618.360048294067</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5408.7334560368699</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>50878.910079956055</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5987.6327754072818</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2596454.0161437988</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>318981.00511430867</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>89473.699462890625</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9071.6706587330827</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>35415.929792404175</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4374.7606357777759</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>39365.709991455078</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2013.6440206535935</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2598494.4207992554</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>312442.9003100837</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>42382.78980255127</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5523.0257284744475</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>101687.28987121582</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>14455.531200560519</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>37318.29984664917</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3595.1625891702611</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>1177185.6272563934</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>130034.19963808366</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>23909.949733734131</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3904.8744332357055</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>105063.61151123047</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>12538.993742177101</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>48813.839538574219</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>354.50426504391845</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>40077.810348510742</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5755.4389048855455</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>5485.679967880249</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>900.94509492546058</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>61667.540462493896</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7920.8509980974595</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>29919.199869155884</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2722.7080931856931</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2798044.184753418</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>325706.19036868139</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2828708.5</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>350962.67265058681</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>126006.93032836914</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>19141.969048600949</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>39984.389801025391</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5042.7646352578795</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>33054402.380095482</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3973342.5482456749</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_DateHierarchy3" xr10:uid="{AB63D824-D3DC-424F-B459-EA4C604AA8D2}" sourceName="[Dim Date].[DateHierarchy]">
   <data>
@@ -26200,11 +26448,11 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable8"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
         <pivotTable tabId="4294967295" name="PivotChartTable4"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable8"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26282,12 +26530,12 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
         <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26363,11 +26611,11 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26451,11 +26699,11 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26632,11 +26880,11 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
       </x15:slicerCachePivotTables>
     </x:ext>
   </extLst>
@@ -26668,12 +26916,12 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
         <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26712,12 +26960,12 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
         <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26800,12 +27048,12 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
         <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -26849,12 +27097,12 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
         <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable9"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable10"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable12"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
